--- a/Ryumshina/ИнформационнаяМодель и бд.xlsx
+++ b/Ryumshina/ИнформационнаяМодель и бд.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Приказ на изготовление</t>
   </si>
@@ -108,17 +108,17 @@
     <t>Radix-Cola classic</t>
   </si>
   <si>
-    <t>Столбец2</t>
+    <t>Код продукта</t>
   </si>
   <si>
-    <t>Столбец3</t>
+    <t>Примечание</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,16 +157,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -174,11 +201,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -202,6 +270,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1140,14 +1217,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>359833</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1156,8 +1233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2201333" y="3009899"/>
-          <a:ext cx="2124075" cy="1138768"/>
+          <a:off x="2188633" y="3086099"/>
+          <a:ext cx="2107142" cy="1138768"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1234,7 +1311,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Дата иготовления</a:t>
+            <a:t>Дата изготовления</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1269,8 +1346,8 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>150283</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>35983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -1288,8 +1365,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4295775" y="3579283"/>
-          <a:ext cx="571499" cy="311679"/>
+          <a:off x="4295775" y="3655483"/>
+          <a:ext cx="571499" cy="235479"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1318,15 +1395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>165630</xdr:colOff>
+      <xdr:colOff>167747</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>100542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1337,8 +1414,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848630" y="2577042"/>
-          <a:ext cx="2645" cy="428625"/>
+          <a:off x="3825347" y="2577042"/>
+          <a:ext cx="13228" cy="556683"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1367,15 +1444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>404813</xdr:colOff>
+      <xdr:colOff>412750</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>105833</xdr:rowOff>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1383,9 +1460,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3473980" y="2582333"/>
-          <a:ext cx="7937" cy="427567"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3460750" y="2582334"/>
+          <a:ext cx="15875" cy="551391"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2423,12 +2500,12 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>194204</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>167218</xdr:colOff>
+      <xdr:colOff>167217</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>166158</xdr:rowOff>
     </xdr:to>
@@ -2442,8 +2519,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3263371" y="4148667"/>
-          <a:ext cx="1200680" cy="1732491"/>
+          <a:off x="3242204" y="4224867"/>
+          <a:ext cx="1192213" cy="1656291"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2522,15 +2599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>359833</xdr:colOff>
+      <xdr:colOff>340783</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:rowOff>110066</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2539,8 +2616,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2201333" y="3462866"/>
-          <a:ext cx="2124075" cy="0"/>
+          <a:off x="2169583" y="3539066"/>
+          <a:ext cx="2107142" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2703,10 +2780,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -2718,14 +2795,13 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="1135" name="Прямая со стрелкой 1134"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
           <a:endCxn id="1208" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6272212" y="4800599"/>
-          <a:ext cx="2292879" cy="1416050"/>
+          <a:off x="7248525" y="4791075"/>
+          <a:ext cx="1316566" cy="1425574"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2755,8 +2831,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>194204</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -2774,8 +2850,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3263371" y="4148667"/>
-          <a:ext cx="5360987" cy="2067982"/>
+          <a:off x="3242204" y="4224867"/>
+          <a:ext cx="5322887" cy="1991782"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2793,6 +2869,553 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106892</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Скругленный прямоугольник 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="4352925"/>
+          <a:ext cx="2107142" cy="1138768"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Карта заказа на производство этикеток</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Приказ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> на иготовление</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Дата изготовления</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>221192</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119593</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Скругленный прямоугольник 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="1647825"/>
+          <a:ext cx="2107142" cy="1138768"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Карта заказа на производство купажа</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Приказ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> на иготовление</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Дата изготовления</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Прямая со стрелкой 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2543175" y="3890962"/>
+          <a:ext cx="2324099" cy="1376363"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>386822</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Прямая со стрелкой 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="45" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1606022" y="2786594"/>
+          <a:ext cx="3556529" cy="204257"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>221192</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>543984</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121709</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Прямая со стрелкой 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2659592" y="1997605"/>
+          <a:ext cx="322792" cy="219604"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>272522</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19054</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Прямая со стрелкой 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1379275" y="2665147"/>
+          <a:ext cx="1800225" cy="1575332"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 79630"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>167746</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>309561</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Прямая со стрелкой 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="0"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7067550" y="-1824037"/>
+          <a:ext cx="363007" cy="6847415"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -215161"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>436033</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Прямая соединительная линия 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="436033" y="4796366"/>
+          <a:ext cx="2107142" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Прямая соединительная линия 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="2095500"/>
+          <a:ext cx="2107142" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2839,34 +3462,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A13:H17" totalsRowShown="0">
-  <autoFilter ref="A13:H17"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A13:I17" totalsRowShown="0">
+  <autoFilter ref="A13:I17"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Приказ на изготовление"/>
     <tableColumn id="2" name="Наименование продукта"/>
-    <tableColumn id="3" name="Дата формирования документа"/>
-    <tableColumn id="4" name="Дата начала производства"/>
-    <tableColumn id="5" name="Планируемые сроки "/>
-    <tableColumn id="6" name="Объем производства "/>
-    <tableColumn id="7" name="Столбец1"/>
-    <tableColumn id="8" name="Столбец2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A19:H23" totalsRowShown="0">
-  <autoFilter ref="A19:H23"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Наименование продукта"/>
-    <tableColumn id="2" name="Код продукта "/>
-    <tableColumn id="3" name="Тип пластиковой тары"/>
-    <tableColumn id="4" name="Тип купажа"/>
-    <tableColumn id="5" name="Тип этикетки"/>
-    <tableColumn id="6" name="Столбец1"/>
-    <tableColumn id="7" name="Столбец2"/>
-    <tableColumn id="8" name="Столбец3"/>
+    <tableColumn id="3" name="Код продукта"/>
+    <tableColumn id="4" name="Дата формирования документа"/>
+    <tableColumn id="5" name="Дата начала производства"/>
+    <tableColumn id="6" name="Планируемые сроки "/>
+    <tableColumn id="7" name="Объем производства "/>
+    <tableColumn id="8" name="Примечание"/>
+    <tableColumn id="9" name="Дата окончания"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3137,7 +3744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -3149,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3359,57 +3968,88 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B21" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Ryumshina/ИнформационнаяМодель и бд.xlsx
+++ b/Ryumshina/ИнформационнаяМодель и бд.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Приказ на изготовление</t>
   </si>
@@ -113,12 +113,15 @@
   <si>
     <t>Примечание</t>
   </si>
+  <si>
+    <t>Сертефекат качества</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +164,23 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -246,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -279,6 +299,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2219,47 +2245,27 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Приказ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> на производство продукции</a:t>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Наименование</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> товара</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ru-RU" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Карта заказа из разливочного цеха </a:t>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Дата поступления</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>Объем</a:t>
+          </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3744,8 +3750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3758,10 +3764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3994,7 +4000,7 @@
       <c r="B19" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -4043,6 +4049,11 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
